--- a/documents/TestVectors.xlsx
+++ b/documents/TestVectors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonymione/SUNY/0_SUNY_CSE331/Spring2024_Assignments/Assign 3/508/soln/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EB3799-AD36-0D4D-9146-13F2C1E28B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9DB2BE-9D9F-2C4E-B950-D02793AFC869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="3600" windowWidth="24960" windowHeight="16400" xr2:uid="{2D4A985F-523C-5B4F-B799-FD7AFD3CAC6E}"/>
+    <workbookView xWindow="4440" yWindow="1580" windowWidth="24960" windowHeight="16400" xr2:uid="{2D4A985F-523C-5B4F-B799-FD7AFD3CAC6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Key</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>testcbc3.data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5d67df0102130b5b9f45 </t>
   </si>
 </sst>
 </file>
@@ -208,11 +211,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -534,7 +536,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -545,7 +547,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -609,7 +611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -626,36 +628,36 @@
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" s="4" customFormat="1">
-      <c r="A12" s="4" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" s="3" customFormat="1">
+      <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
@@ -675,10 +677,10 @@
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D15" t="s">
@@ -689,13 +691,13 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="6" t="s">
-        <v>18</v>
+      <c r="A16" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
